--- a/medicine/Enfance/Isabelle_Minière/Isabelle_Minière.xlsx
+++ b/medicine/Enfance/Isabelle_Minière/Isabelle_Minière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Isabelle_Mini%C3%A8re</t>
+          <t>Isabelle_Minière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Isabelle Minière, née le 24 août 1961 (62 ans)[1], est une écrivaine française de romans et de nouvelles, de littérature générale et de littérature jeunesse. Elle vit à Paris.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isabelle Minière, née le 24 août 1961 (62 ans), est une écrivaine française de romans et de nouvelles, de littérature générale et de littérature jeunesse. Elle vit à Paris.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Isabelle_Mini%C3%A8re</t>
+          <t>Isabelle_Minière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isabelle_Mini%C3%A8re</t>
+          <t>Isabelle_Minière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Romans
 Le Soupirant, éditions Jean-Claude Lattès, 2001
@@ -548,8 +564,8 @@
 La Première Marche, Le Dilettante, 2007
 Il sera là, debout, roman, D'un Noir Si Bleu, 2012
 Je rêve que Marguerite Duras vient me voir, Éd. du Jasmin, 2012
-Je suis très sensible[2], éditions Serge Safran, 2014
-On n'est jamais à l'abri d'une bonne surprise[3], éditions Serge Safran, 2016
+Je suis très sensible, éditions Serge Safran, 2014
+On n'est jamais à l'abri d'une bonne surprise, éditions Serge Safran, 2016
 Au pied de la lettre, Serge Safran éditeur, 2017
 Bouche cousue, le Verger éditeur, 2018
 Je suis né laid, Serge Safran éditeur, 2019
@@ -564,7 +580,7 @@
 Romans jeunesse
 Mes formules magiques, Éd. du Jasmin, 2013 - roman jeunesse
 La règle d'or, Éd. du Jasmin, 2013 - roman jeunesse
-Chouette Divorce[4], roman jeunesse, éditions du Rouergue, 2013 - roman jeunesse
+Chouette Divorce, roman jeunesse, éditions du Rouergue, 2013 - roman jeunesse
 J'aime pas les bébés !, Rouergue, 2015 - roman jeunesse
 Album jeunesse
 La Sorcière Colère, éditions du Jasmin (illustré par Silvimoro), 2012
@@ -579,7 +595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Isabelle_Mini%C3%A8re</t>
+          <t>Isabelle_Minière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,10 +613,12 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix du livre audio France Culture 2018
-Prix Hors concours des lycéens 2020 pour Je suis né laid[5].</t>
+Prix Hors concours des lycéens 2020 pour Je suis né laid.</t>
         </is>
       </c>
     </row>
